--- a/Lens-Maker/Project Outputs for Lens-Maker/BOM/Bill of Materials.xlsx
+++ b/Lens-Maker/Project Outputs for Lens-Maker/BOM/Bill of Materials.xlsx
@@ -444,7 +444,7 @@
     <t>U4</t>
   </si>
   <si>
-    <t>SOT230P700X180-4N</t>
+    <t>SOT-223</t>
   </si>
   <si>
     <t>AMS1117-3.3V</t>
